--- a/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Лаб1.xlsx
+++ b/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Лаб1.xlsx
@@ -5,16 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Desktop\git\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\Дима\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Desktop\git\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C6E85-B5AC-4E41-9400-F9397A1522D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2792BB1-752D-4B04-97F5-51A6A7777662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk153478266" localSheetId="1">Лист2!$K$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="195">
   <si>
     <t>V(ов) л</t>
   </si>
@@ -217,6 +221,1215 @@
   </si>
   <si>
     <t>Баланс кислорода слишком мал. Необходимо большее количество зелёных насаждений для выработки кислорода и поглощения углекислого газа</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Окг топл </t>
+    </r>
+  </si>
+  <si>
+    <t>Исходные данные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Население составляет Н </t>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ОМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ср</t>
+    </r>
+  </si>
+  <si>
+    <t>легковые</t>
+  </si>
+  <si>
+    <t>км/год</t>
+  </si>
+  <si>
+    <t>чел</t>
+  </si>
+  <si>
+    <r>
+      <t>К</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>М 1 ч</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>ед/чел</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>общ</t>
+    </r>
+  </si>
+  <si>
+    <t>автотранспорта</t>
+  </si>
+  <si>
+    <t>Общий путь, пройденный общим количеством автомашин, км (L)</t>
+  </si>
+  <si>
+    <t>Легковой (Б)</t>
+  </si>
+  <si>
+    <t>Грузовой (Б)</t>
+  </si>
+  <si>
+    <t>Автобусы (Б)</t>
+  </si>
+  <si>
+    <t>Легковой (ДТ)</t>
+  </si>
+  <si>
+    <t>Автобусы (ДТ)</t>
+  </si>
+  <si>
+    <t>Грузовой (ДТ)</t>
+  </si>
+  <si>
+    <t>Число автомобилей на территории, ед (Nа)</t>
+  </si>
+  <si>
+    <t>Тип автотранспорта</t>
+  </si>
+  <si>
+    <t>Qб</t>
+  </si>
+  <si>
+    <t>Норма расхода,</t>
+  </si>
+  <si>
+    <t>л /100 км (Q)</t>
+  </si>
+  <si>
+    <t>Удельный расход</t>
+  </si>
+  <si>
+    <t>топлива, л /км (q)</t>
+  </si>
+  <si>
+    <t>8 – 14</t>
+  </si>
+  <si>
+    <t>26 – 28</t>
+  </si>
+  <si>
+    <t>30 – 32</t>
+  </si>
+  <si>
+    <t>22 ─ 24</t>
+  </si>
+  <si>
+    <t>24 – 26</t>
+  </si>
+  <si>
+    <t>Газель (ДТ)</t>
+  </si>
+  <si>
+    <t>6 ─ 8</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Бензин Qб</t>
+  </si>
+  <si>
+    <t>Дизтопливо Qдт</t>
+  </si>
+  <si>
+    <t>─</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Мб</t>
+  </si>
+  <si>
+    <t>м3</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>кг/л</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <r>
+      <t>М</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">общ </t>
+    </r>
+  </si>
+  <si>
+    <t>Ro</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>Вид топлива</t>
+  </si>
+  <si>
+    <r>
+      <t>Значение коэффициентов (Квв</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>т</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>), кг/т, (г/кг)</t>
+    </r>
+  </si>
+  <si>
+    <t>СО</t>
+  </si>
+  <si>
+    <r>
+      <t>SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>сажа</t>
+  </si>
+  <si>
+    <t>Бензин</t>
+  </si>
+  <si>
+    <t>Дизтопливо</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>CnHn</t>
+  </si>
+  <si>
+    <t>Вредное</t>
+  </si>
+  <si>
+    <r>
+      <t>Масса вредного вещества при сгорании топлива (m вв</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>т</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>), г</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Масса вредного вещества по пробеговому выбросу (m вв</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>п</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>), г</t>
+    </r>
+  </si>
+  <si>
+    <t>Общая масса вредного вещества (m вв),</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>ДТ</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <r>
+      <t>SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Сажа</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <r>
+      <t>С</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Н</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <t>SO3</t>
+  </si>
+  <si>
+    <t>Вид</t>
+  </si>
+  <si>
+    <t>Удельные пробеговые выбросы, мг/м (г/км)</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <r>
+      <t>SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>С</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Н</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Автобусы,</t>
+  </si>
+  <si>
+    <t>Грузовые (Б)</t>
+  </si>
+  <si>
+    <r>
+      <t>0,73х10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <t>Легковой, «Газели» (ДТ)</t>
+  </si>
+  <si>
+    <r>
+      <t>0,6х10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <t>Автобусы, Грузовые (ДТ)</t>
+  </si>
+  <si>
+    <r>
+      <t>0,2х10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-6</t>
+    </r>
+  </si>
+  <si>
+    <t>Проехало автомобилей в течение 20 мин, ед</t>
+  </si>
+  <si>
+    <t>Проехало автомобилей в течение 1 ч, ед</t>
+  </si>
+  <si>
+    <t>Общий путь, пройденный общим количеством автомашин за 1 ч, км (L)</t>
+  </si>
+  <si>
+    <t>Вредное вещество</t>
+  </si>
+  <si>
+    <t>Годовая</t>
+  </si>
+  <si>
+    <t>Суточная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO </t>
+  </si>
+  <si>
+    <t>C20H12</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Lуч</t>
+  </si>
+  <si>
+    <t>км</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> вв</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>п/час</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vу </t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>у</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Ш</t>
+  </si>
+  <si>
+    <t>Н</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>км3</t>
+  </si>
+  <si>
+    <r>
+      <t>С</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ВВ. </t>
+    </r>
+  </si>
+  <si>
+    <t>вещество</t>
+  </si>
+  <si>
+    <t>Концентрация вредных</t>
+  </si>
+  <si>
+    <r>
+      <t>веществ на учетной территории, мг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, (С</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ВВ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Объем воздуха,</t>
+  </si>
+  <si>
+    <r>
+      <t>необходимый для разбавления, м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (Vв</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>р</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>опасности</t>
+  </si>
+  <si>
+    <t>Предельно допустимые</t>
+  </si>
+  <si>
+    <r>
+      <t>концентрации, мг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t> (ПДК)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ПДК</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>МР</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ПДК</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>СС</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Двуокись азота (NO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Свинец и его соединения (Рb)</t>
+  </si>
+  <si>
+    <t>Оксид углерода</t>
+  </si>
+  <si>
+    <t>(СО)</t>
+  </si>
+  <si>
+    <t>Углеводороды</t>
+  </si>
+  <si>
+    <r>
+      <t>(С</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Пыль</t>
+  </si>
+  <si>
+    <t>Двуокись серы</t>
+  </si>
+  <si>
+    <r>
+      <t>(SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Без(а)пирен</t>
+  </si>
+  <si>
+    <r>
+      <t>(C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Сернистый ангидрид (SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Окись азота (N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>O)</t>
+    </r>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -226,12 +1439,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +1480,107 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -274,7 +1596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -297,22 +1619,408 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -645,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="61" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,4 +2831,1595 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E4EE3D-134B-4883-BA19-A51C117059BF}">
+  <dimension ref="A1:Q86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="77" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1">
+        <f>B4</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <f>B8</f>
+        <v>75000</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="1">
+        <f>11/100</f>
+        <v>0.11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="1">
+        <f>B10</f>
+        <v>8250</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>15000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <f>B4/B3</f>
+        <v>0.25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <f>B4*B5</f>
+        <v>75000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="1">
+        <f>SUM(P3:P8)</f>
+        <v>8250</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <f>B8*M3</f>
+        <v>8250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>0.75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="G12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="13">
+        <v>395</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="J12" s="13">
+        <v>20</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="L12" s="13">
+        <v>34</v>
+      </c>
+      <c r="M12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <f>B10*B11</f>
+        <v>6187.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="13">
+        <v>9</v>
+      </c>
+      <c r="I13" s="13">
+        <v>6</v>
+      </c>
+      <c r="J13" s="13">
+        <v>33</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="13">
+        <v>20</v>
+      </c>
+      <c r="M13" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <f>B13</f>
+        <v>6187.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <f>B14*B2</f>
+        <v>8278.875</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="13">
+        <f>B4</f>
+        <v>5</v>
+      </c>
+      <c r="I16" s="48">
+        <f>H16*3</f>
+        <v>15</v>
+      </c>
+      <c r="J16" s="48">
+        <f>B21*I16*2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <f>B16/1000</f>
+        <v>8.2788749999999993</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19">
+        <f>B20*B21</f>
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20">
+        <f>B4</f>
+        <v>5</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23">
+        <f>H34</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="44"/>
+    </row>
+    <row r="24" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25">
+        <f>B26*B27*B28</f>
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25">
+        <f>D26*D27*D28</f>
+        <v>3500</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="38">
+        <v>19.8</v>
+      </c>
+      <c r="I25" s="38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J25" s="38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="38">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M25" s="38">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N25" s="39"/>
+      <c r="O25" s="40">
+        <f>0.18*10^-6</f>
+        <v>1.8E-7</v>
+      </c>
+      <c r="P25" s="37">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26">
+        <f>B21</f>
+        <v>0.2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D27" si="0">B26*1000</f>
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="45">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I26" s="45">
+        <v>6.9</v>
+      </c>
+      <c r="J26" s="45">
+        <v>0.8</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" s="45">
+        <v>0.19</v>
+      </c>
+      <c r="M26" s="45">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N26" s="45">
+        <v>0.85</v>
+      </c>
+      <c r="O26" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="45">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27">
+        <f>10/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+    </row>
+    <row r="28" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28">
+        <f>1.75/1000</f>
+        <v>1.75E-3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28">
+        <f>B28*1000</f>
+        <v>1.75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="38">
+        <v>28.5</v>
+      </c>
+      <c r="I28" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="J28" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="38">
+        <v>0.11</v>
+      </c>
+      <c r="M28" s="38">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N28" s="39">
+        <v>0.88</v>
+      </c>
+      <c r="O28" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="P28" s="37">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="38">
+        <v>6.2</v>
+      </c>
+      <c r="I29" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J29" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="K29" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="L29" s="38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="N29" s="39"/>
+      <c r="O29" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P29" s="37">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="K31" s="50"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F33" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="1">
+        <f>B13*H12</f>
+        <v>2444062.5</v>
+      </c>
+      <c r="I33" s="1">
+        <f>B19*H25*24*365</f>
+        <v>173448.00000000003</v>
+      </c>
+      <c r="J33" s="51">
+        <f>SUM(H33:I33)</f>
+        <v>2617510.5</v>
+      </c>
+      <c r="K33" s="51">
+        <f>J33/365</f>
+        <v>7171.2616438356163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F34" s="51"/>
+      <c r="G34" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F35" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="1">
+        <f>B13*I12</f>
+        <v>9900</v>
+      </c>
+      <c r="I35" s="1">
+        <f>B19*L25*24*365</f>
+        <v>613.20000000000005</v>
+      </c>
+      <c r="J35" s="51">
+        <f t="shared" ref="J35" si="1">SUM(H35:I35)</f>
+        <v>10513.2</v>
+      </c>
+      <c r="K35" s="51">
+        <f>J35/365</f>
+        <v>28.80328767123288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="51"/>
+      <c r="G36" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="1">
+        <f>B13*J12</f>
+        <v>123750</v>
+      </c>
+      <c r="I37" s="1">
+        <f>B19*J25*24*365</f>
+        <v>2452.8000000000002</v>
+      </c>
+      <c r="J37" s="51">
+        <f t="shared" ref="J37" si="2">SUM(H37:I37)</f>
+        <v>126202.8</v>
+      </c>
+      <c r="K37" s="51">
+        <f>J37/365</f>
+        <v>345.76109589041096</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="51"/>
+      <c r="G38" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F39" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="1">
+        <f>B13*K12</f>
+        <v>4331.25</v>
+      </c>
+      <c r="I39" s="1">
+        <f>B19*M25*24*365</f>
+        <v>306.60000000000002</v>
+      </c>
+      <c r="J39" s="51">
+        <f t="shared" ref="J39" si="3">SUM(H39:I39)</f>
+        <v>4637.8500000000004</v>
+      </c>
+      <c r="K39" s="51">
+        <f>J39/365</f>
+        <v>12.706438356164385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F40" s="51"/>
+      <c r="G40" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F41" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="1">
+        <f>B13*N25</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <f>B19*N25</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="51">
+        <f t="shared" ref="J41" si="4">SUM(H41:I41)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="51">
+        <f>J41/365</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F42" s="51"/>
+      <c r="G42" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F43" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="1">
+        <f>B13*L12</f>
+        <v>210375</v>
+      </c>
+      <c r="I43" s="1">
+        <f>B19*I25*24*365</f>
+        <v>20148</v>
+      </c>
+      <c r="J43" s="51">
+        <f t="shared" ref="J43" si="5">SUM(H43:I43)</f>
+        <v>230523</v>
+      </c>
+      <c r="K43" s="51">
+        <f>J43/365</f>
+        <v>631.56986301369864</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F44" s="51"/>
+      <c r="G44" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="1">
+        <f>B13*M12</f>
+        <v>12375</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="51">
+        <f t="shared" ref="J45" si="6">SUM(H45:I45)</f>
+        <v>12375</v>
+      </c>
+      <c r="K45" s="51">
+        <f>J45/365</f>
+        <v>33.904109589041099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="51"/>
+      <c r="G46" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
+        <f>B19*P25*24*365</f>
+        <v>376.68</v>
+      </c>
+      <c r="J47" s="51">
+        <f t="shared" ref="J47" si="7">SUM(H47:I47)</f>
+        <v>376.68</v>
+      </c>
+      <c r="K47" s="51">
+        <f>J47/365</f>
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F48" s="51"/>
+      <c r="G48" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F49" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1">
+        <f>B19*O25*24*365</f>
+        <v>1.5767999999999999E-3</v>
+      </c>
+      <c r="J49" s="51">
+        <f t="shared" ref="J49" si="8">SUM(H49:I49)</f>
+        <v>1.5767999999999999E-3</v>
+      </c>
+      <c r="K49" s="51">
+        <f>J49/365</f>
+        <v>4.3200000000000001E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F50" s="51"/>
+      <c r="G50" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+    </row>
+    <row r="51" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="6:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="68"/>
+    </row>
+    <row r="53" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="53"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="69"/>
+    </row>
+    <row r="54" spans="6:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I54" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="J54" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H55" s="29">
+        <f>K33*1000/$D$25</f>
+        <v>2048.9318982387476</v>
+      </c>
+      <c r="I55" s="65">
+        <f>K33/J72</f>
+        <v>2390.4205479452053</v>
+      </c>
+      <c r="J55" s="69">
+        <f>H55/J72</f>
+        <v>682.97729941291584</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" s="54">
+        <f>K35*1000/$D$25</f>
+        <v>8.2295107632093938</v>
+      </c>
+      <c r="I56" s="66">
+        <f>K35/J79</f>
+        <v>576.0657534246576</v>
+      </c>
+      <c r="J56" s="69">
+        <f>H56/J79</f>
+        <v>164.59021526418786</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="54">
+        <f>K37*1000/$D$25</f>
+        <v>98.788884540117408</v>
+      </c>
+      <c r="I57" s="66">
+        <f>K37/J69</f>
+        <v>8644.0273972602736</v>
+      </c>
+      <c r="J57" s="69">
+        <f>H57/J69</f>
+        <v>2469.7221135029354</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="54">
+        <f>K39*1000/$D$25</f>
+        <v>3.6304109589041103</v>
+      </c>
+      <c r="I58" s="66">
+        <f>K39/J71</f>
+        <v>42354.794520547955</v>
+      </c>
+      <c r="J58" s="69">
+        <f>H58/J71</f>
+        <v>12101.369863013702</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" s="54">
+        <f>K41*1000/$D$25</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="66">
+        <f>K41/J85</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="69">
+        <f>H59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" s="54">
+        <f>K43*1000/$D$25</f>
+        <v>180.44853228962816</v>
+      </c>
+      <c r="I60" s="66">
+        <f>K43/J75</f>
+        <v>126313.97260273973</v>
+      </c>
+      <c r="J60" s="69">
+        <f>H60/J75</f>
+        <v>36089.706457925633</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" s="54">
+        <f>K45*1000/$D$25</f>
+        <v>9.6868884540117435</v>
+      </c>
+      <c r="I61" s="66">
+        <f>K45/J70</f>
+        <v>678.08219178082197</v>
+      </c>
+      <c r="J61" s="69">
+        <f>H61/J70</f>
+        <v>193.73776908023487</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H62" s="54">
+        <f>K47*1000/$D$25</f>
+        <v>0.29485714285714287</v>
+      </c>
+      <c r="I62" s="66">
+        <f>K47/J86</f>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="J62" s="69">
+        <f>H62/J86</f>
+        <v>4.9142857142857146</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H63" s="55">
+        <f>K49*1000/$D$25</f>
+        <v>1.2342857142857142E-6</v>
+      </c>
+      <c r="I63" s="67">
+        <f>K49/J82</f>
+        <v>4.32</v>
+      </c>
+      <c r="J63" s="71">
+        <f>H63/J82</f>
+        <v>1.2342857142857142</v>
+      </c>
+    </row>
+    <row r="64" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I65" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="35"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
+    </row>
+    <row r="67" spans="7:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="35"/>
+      <c r="H67" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="J67" s="34"/>
+    </row>
+    <row r="68" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="16"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H69" s="13">
+        <v>2</v>
+      </c>
+      <c r="I69" s="13">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J69" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H70" s="13">
+        <v>3</v>
+      </c>
+      <c r="I70" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="J70" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H71" s="13">
+        <v>1</v>
+      </c>
+      <c r="I71" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="J71" s="13">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G72" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="H72" s="15">
+        <v>3</v>
+      </c>
+      <c r="I72" s="15">
+        <v>5</v>
+      </c>
+      <c r="J72" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G73" s="53"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+    </row>
+    <row r="74" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+    </row>
+    <row r="75" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G75" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H75" s="15">
+        <v>4</v>
+      </c>
+      <c r="I75" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="J75" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G76" s="53"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+    </row>
+    <row r="77" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H78" s="13">
+        <v>3</v>
+      </c>
+      <c r="I78" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G79" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" s="15">
+        <v>2</v>
+      </c>
+      <c r="I79" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J79" s="15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G80" s="53"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+    </row>
+    <row r="81" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+    </row>
+    <row r="82" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G82" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H82" s="15">
+        <v>1</v>
+      </c>
+      <c r="I82" s="58"/>
+      <c r="J82" s="61">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G83" s="53"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="62"/>
+    </row>
+    <row r="84" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="63"/>
+    </row>
+    <row r="85" spans="7:10" ht="51" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H85" s="13">
+        <v>3</v>
+      </c>
+      <c r="I85" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J85" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H86" s="13">
+        <v>2</v>
+      </c>
+      <c r="I86" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="J86" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:M10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Лаб1.xlsx
+++ b/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Лаб1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Desktop\git\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2792BB1-752D-4B04-97F5-51A6A7777662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D4748E-A727-40F0-A15B-80D40A7E273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="205">
   <si>
     <t>V(ов) л</t>
   </si>
@@ -980,9 +980,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Vу </t>
-  </si>
-  <si>
     <r>
       <t>V</t>
     </r>
@@ -1430,21 +1427,263 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <r>
+      <t>Концентрация вредных веществ на учетной территории, мг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (Свв)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Объем воздуха, необходимый для разбавления, м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (Vвр)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>С</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>П</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ПР О 1ГА ЛМ</t>
+    </r>
+  </si>
+  <si>
+    <t>Т/га</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>НЛМА</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ОБЩ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> зел нас треб </t>
+    </r>
+  </si>
+  <si>
+    <t>га</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>с уч к.д</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1581,6 +1820,32 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1596,7 +1861,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1809,7 +2074,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1819,7 +2086,54 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1828,80 +2142,138 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1910,117 +2282,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2075,8 +2409,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6443525" y="5798284"/>
-          <a:ext cx="6986761" cy="5312879"/>
+          <a:off x="6431212" y="5741551"/>
+          <a:ext cx="6959257" cy="5258102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160812</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>75442</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>130095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8754555E-3D36-4C82-ACE2-B462D285F125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9537370" y="24171235"/>
+          <a:ext cx="6087325" cy="600159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2353,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A25" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,10 +3218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E4EE3D-134B-4883-BA19-A51C117059BF}">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="77" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="77" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,7 +3230,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="37.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -2860,13 +3243,13 @@
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>73</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -3117,17 +3500,17 @@
       <c r="C10" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="22"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="67"/>
     </row>
     <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
@@ -3139,7 +3522,7 @@
       <c r="C11" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="13" t="s">
         <v>110</v>
       </c>
@@ -3229,16 +3612,16 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="15" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3260,11 +3643,11 @@
         <f>B4</f>
         <v>5</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="29">
         <f>H16*3</f>
         <v>15</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="29">
         <f>B21*I16*2</f>
         <v>6</v>
       </c>
@@ -3284,16 +3667,16 @@
         <v>75</v>
       </c>
       <c r="H17" s="13"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
@@ -3310,8 +3693,8 @@
         <v>77</v>
       </c>
       <c r="H19" s="13"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3325,8 +3708,8 @@
         <v>79</v>
       </c>
       <c r="H20" s="13"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -3343,75 +3726,75 @@
         <v>78</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="16" t="s">
         <v>162</v>
       </c>
       <c r="B23">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="44"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="60"/>
     </row>
     <row r="24" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M24" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="40" t="s">
+      <c r="O24" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="P24" s="37" t="s">
+      <c r="P24" s="23" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25">
         <f>B26*B27*B28</f>
         <v>3.4999999999999999E-6</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25">
         <f>D26*D27*D28</f>
@@ -3420,33 +3803,33 @@
       <c r="E25" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="24">
         <v>19.8</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="24">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="40">
+      <c r="N25" s="25"/>
+      <c r="O25" s="26">
         <f>0.18*10^-6</f>
         <v>1.8E-7</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="23">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
@@ -3463,42 +3846,42 @@
         <v>200</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="61">
         <v>37.299999999999997</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="61">
         <v>6.9</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="61">
         <v>0.8</v>
       </c>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="61">
         <v>0.19</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="61">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="61">
         <v>0.85</v>
       </c>
-      <c r="O26" s="45" t="s">
+      <c r="O26" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="45">
+      <c r="P26" s="61">
         <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27">
         <f>10/1000</f>
@@ -3512,24 +3895,24 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28">
         <f>1.75/1000</f>
@@ -3543,95 +3926,104 @@
         <v>1.75</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="24">
         <v>28.5</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="24">
         <v>3.5</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="24">
         <v>0.6</v>
       </c>
-      <c r="K28" s="38" t="s">
+      <c r="K28" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="24">
         <v>0.11</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="24">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N28" s="39">
+      <c r="N28" s="25">
         <v>0.88</v>
       </c>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="23">
         <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="24">
         <v>6.2</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="24">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="24">
         <v>3.5</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="24">
         <v>0.3</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="24">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M29" s="38" t="s">
+      <c r="M29" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="40" t="s">
+      <c r="N29" s="25"/>
+      <c r="O29" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="P29" s="37">
+      <c r="P29" s="23">
         <v>4.72</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49" t="s">
+      <c r="G31" s="56"/>
+      <c r="H31" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="K31" s="50"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:16" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32">
+        <v>16.7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="1" t="s">
         <v>155</v>
       </c>
@@ -3639,11 +4031,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F33" s="51" t="s">
+    <row r="33" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33">
+        <f>B17/B32</f>
+        <v>0.49574101796407183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="30" t="s">
         <v>126</v>
       </c>
       <c r="H33" s="1">
@@ -3654,29 +4056,50 @@
         <f>B19*H25*24*365</f>
         <v>173448.00000000003</v>
       </c>
-      <c r="J33" s="51">
+      <c r="J33" s="55">
         <f>SUM(H33:I33)</f>
         <v>2617510.5</v>
       </c>
-      <c r="K33" s="51">
+      <c r="K33" s="55">
         <f>J33/365</f>
         <v>7171.2616438356163</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F34" s="51"/>
-      <c r="G34" s="52" t="s">
+      <c r="N33" s="81"/>
+    </row>
+    <row r="34" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34">
+        <f>Лист1!B46/10000</f>
+        <v>3.8970873005464479E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="55"/>
+      <c r="G34" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F35" s="51" t="s">
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+    </row>
+    <row r="35" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="80">
+        <f>B34+B33</f>
+        <v>0.53471189096953631</v>
+      </c>
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="30" t="s">
         <v>126</v>
       </c>
       <c r="H35" s="1">
@@ -3687,30 +4110,41 @@
         <f>B19*L25*24*365</f>
         <v>613.20000000000005</v>
       </c>
-      <c r="J35" s="51">
+      <c r="J35" s="55">
         <f t="shared" ref="J35" si="1">SUM(H35:I35)</f>
         <v>10513.2</v>
       </c>
-      <c r="K35" s="51">
+      <c r="K35" s="55">
         <f>J35/365</f>
         <v>28.80328767123288</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F36" s="51"/>
-      <c r="G36" s="52" t="s">
+    <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F37" s="51" t="s">
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+    </row>
+    <row r="37" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37">
+        <f>B35*1.25</f>
+        <v>0.66838986371192033</v>
+      </c>
+      <c r="C37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="30" t="s">
         <v>126</v>
       </c>
       <c r="H37" s="1">
@@ -3721,30 +4155,30 @@
         <f>B19*J25*24*365</f>
         <v>2452.8000000000002</v>
       </c>
-      <c r="J37" s="51">
+      <c r="J37" s="55">
         <f t="shared" ref="J37" si="2">SUM(H37:I37)</f>
         <v>126202.8</v>
       </c>
-      <c r="K37" s="51">
+      <c r="K37" s="55">
         <f>J37/365</f>
         <v>345.76109589041096</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F38" s="51"/>
-      <c r="G38" s="52" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F38" s="55"/>
+      <c r="G38" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F39" s="51" t="s">
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F39" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="30" t="s">
         <v>126</v>
       </c>
       <c r="H39" s="1">
@@ -3755,30 +4189,30 @@
         <f>B19*M25*24*365</f>
         <v>306.60000000000002</v>
       </c>
-      <c r="J39" s="51">
+      <c r="J39" s="55">
         <f t="shared" ref="J39" si="3">SUM(H39:I39)</f>
         <v>4637.8500000000004</v>
       </c>
-      <c r="K39" s="51">
+      <c r="K39" s="55">
         <f>J39/365</f>
         <v>12.706438356164385</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F40" s="51"/>
-      <c r="G40" s="52" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F40" s="55"/>
+      <c r="G40" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F41" s="51" t="s">
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F41" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="G41" s="52" t="s">
+      <c r="G41" s="30" t="s">
         <v>126</v>
       </c>
       <c r="H41" s="1">
@@ -3789,30 +4223,30 @@
         <f>B19*N25</f>
         <v>0</v>
       </c>
-      <c r="J41" s="51">
+      <c r="J41" s="55">
         <f t="shared" ref="J41" si="4">SUM(H41:I41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="51">
+      <c r="K41" s="55">
         <f>J41/365</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F42" s="51"/>
-      <c r="G42" s="52" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F42" s="55"/>
+      <c r="G42" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F43" s="51" t="s">
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F43" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="30" t="s">
         <v>126</v>
       </c>
       <c r="H43" s="1">
@@ -3823,33 +4257,30 @@
         <f>B19*I25*24*365</f>
         <v>20148</v>
       </c>
-      <c r="J43" s="51">
+      <c r="J43" s="55">
         <f t="shared" ref="J43" si="5">SUM(H43:I43)</f>
         <v>230523</v>
       </c>
-      <c r="K43" s="51">
+      <c r="K43" s="55">
         <f>J43/365</f>
         <v>631.56986301369864</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F44" s="51"/>
-      <c r="G44" s="52" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F44" s="55"/>
+      <c r="G44" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" s="51" t="s">
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F45" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="30" t="s">
         <v>126</v>
       </c>
       <c r="H45" s="1">
@@ -3857,30 +4288,30 @@
         <v>12375</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="51">
+      <c r="J45" s="55">
         <f t="shared" ref="J45" si="6">SUM(H45:I45)</f>
         <v>12375</v>
       </c>
-      <c r="K45" s="51">
+      <c r="K45" s="55">
         <f>J45/365</f>
         <v>33.904109589041099</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F46" s="51"/>
-      <c r="G46" s="52" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F46" s="55"/>
+      <c r="G46" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F47" s="51" t="s">
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F47" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="30" t="s">
         <v>126</v>
       </c>
       <c r="H47" s="1"/>
@@ -3888,30 +4319,30 @@
         <f>B19*P25*24*365</f>
         <v>376.68</v>
       </c>
-      <c r="J47" s="51">
+      <c r="J47" s="55">
         <f t="shared" ref="J47" si="7">SUM(H47:I47)</f>
         <v>376.68</v>
       </c>
-      <c r="K47" s="51">
+      <c r="K47" s="55">
         <f>J47/365</f>
         <v>1.032</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F48" s="51"/>
-      <c r="G48" s="52" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F48" s="55"/>
+      <c r="G48" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
     </row>
     <row r="49" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="30" t="s">
         <v>126</v>
       </c>
       <c r="H49" s="1"/>
@@ -3919,24 +4350,24 @@
         <f>B19*O25*24*365</f>
         <v>1.5767999999999999E-3</v>
       </c>
-      <c r="J49" s="51">
+      <c r="J49" s="55">
         <f t="shared" ref="J49" si="8">SUM(H49:I49)</f>
         <v>1.5767999999999999E-3</v>
       </c>
-      <c r="K49" s="51">
+      <c r="K49" s="55">
         <f>J49/365</f>
         <v>4.3200000000000001E-6</v>
       </c>
     </row>
     <row r="50" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="51"/>
-      <c r="G50" s="52" t="s">
+      <c r="F50" s="55"/>
+      <c r="G50" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
     </row>
     <row r="51" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="6:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3944,468 +4375,547 @@
         <v>122</v>
       </c>
       <c r="H52" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J52" s="39"/>
+    </row>
+    <row r="53" spans="6:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H53" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="I52" s="25" t="s">
+      <c r="I53" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="J52" s="68"/>
-    </row>
-    <row r="53" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G53" s="53"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="69"/>
-    </row>
-    <row r="54" spans="6:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I54" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="J54" s="70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G55" s="26" t="s">
+      <c r="J53" s="71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H54" s="21">
         <f>K33*1000/$D$25</f>
         <v>2048.9318982387476</v>
       </c>
-      <c r="I55" s="65">
-        <f>K33/J72</f>
+      <c r="I54" s="36">
+        <f>K33/J71</f>
         <v>2390.4205479452053</v>
       </c>
-      <c r="J55" s="69">
-        <f>H55/J72</f>
+      <c r="J54" s="70">
+        <f>H54/J71</f>
         <v>682.97729941291584</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" s="32">
+        <f>K35*1000/$D$25</f>
+        <v>8.2295107632093938</v>
+      </c>
+      <c r="I55" s="37">
+        <f>K35/J78</f>
+        <v>576.0657534246576</v>
+      </c>
+      <c r="J55" s="68">
+        <f>H55/J78</f>
+        <v>164.59021526418786</v>
       </c>
     </row>
     <row r="56" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G56" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" s="32">
+        <f>K37*1000/$D$25</f>
+        <v>98.788884540117408</v>
+      </c>
+      <c r="I56" s="37">
+        <f>K37/J68</f>
+        <v>8644.0273972602736</v>
+      </c>
+      <c r="J56" s="68">
+        <f>H56/J68</f>
+        <v>2469.7221135029354</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="32">
+        <f>K39*1000/$D$25</f>
+        <v>3.6304109589041103</v>
+      </c>
+      <c r="I57" s="37">
+        <f>K39/J70</f>
+        <v>42354.794520547955</v>
+      </c>
+      <c r="J57" s="68">
+        <f>H57/J70</f>
+        <v>12101.369863013702</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H58" s="32">
+        <f>K41*1000/$D$25</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="37">
+        <f>K41/J84</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="68">
+        <f>H58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H59" s="32">
+        <f>K43*1000/$D$25</f>
+        <v>180.44853228962816</v>
+      </c>
+      <c r="I59" s="37">
+        <f>K43/J74</f>
+        <v>126313.97260273973</v>
+      </c>
+      <c r="J59" s="68">
+        <f>H59/J74</f>
+        <v>36089.706457925633</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="32">
+        <f>K45*1000/$D$25</f>
+        <v>9.6868884540117435</v>
+      </c>
+      <c r="I60" s="37">
+        <f>K45/J69</f>
+        <v>678.08219178082197</v>
+      </c>
+      <c r="J60" s="68">
+        <f>H60/J69</f>
+        <v>193.73776908023487</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H61" s="32">
+        <f>K47*1000/$D$25</f>
+        <v>0.29485714285714287</v>
+      </c>
+      <c r="I61" s="37">
+        <f>K47/J85</f>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="J61" s="68">
+        <f>H61/J85</f>
+        <v>4.9142857142857146</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="33">
+        <f>K49*1000/$D$25</f>
+        <v>1.2342857142857142E-6</v>
+      </c>
+      <c r="I62" s="38">
+        <f>K49/J81</f>
+        <v>4.32</v>
+      </c>
+      <c r="J62" s="69">
+        <f>H62/J81</f>
+        <v>1.2342857142857142</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I64" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="J64" s="50"/>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="41"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="52"/>
+    </row>
+    <row r="66" spans="7:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="41"/>
+      <c r="H66" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I66" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="J66" s="54"/>
+    </row>
+    <row r="67" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="42"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H68" s="13">
+        <v>2</v>
+      </c>
+      <c r="I68" s="13">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J68" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" s="13">
+        <v>3</v>
+      </c>
+      <c r="I69" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="J69" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" s="13">
+        <v>1</v>
+      </c>
+      <c r="I70" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="J70" s="13">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G71" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="H71" s="40">
+        <v>3</v>
+      </c>
+      <c r="I71" s="40">
+        <v>5</v>
+      </c>
+      <c r="J71" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="31"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+    </row>
+    <row r="74" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G74" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H74" s="40">
+        <v>4</v>
+      </c>
+      <c r="I74" s="40">
+        <v>0.03</v>
+      </c>
+      <c r="J74" s="40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G75" s="31"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+    </row>
+    <row r="77" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="13">
+        <v>3</v>
+      </c>
+      <c r="I77" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J77" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G78" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H78" s="40">
+        <v>2</v>
+      </c>
+      <c r="I78" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="J78" s="40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G79" s="31"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+    </row>
+    <row r="81" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G81" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H81" s="40">
+        <v>1</v>
+      </c>
+      <c r="I81" s="43"/>
+      <c r="J81" s="46">
+        <f>10^-6</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G82" s="31"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="47"/>
+    </row>
+    <row r="83" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H83" s="42"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="48"/>
+    </row>
+    <row r="84" spans="7:10" ht="51" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H84" s="13">
+        <v>3</v>
+      </c>
+      <c r="I84" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J84" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H85" s="13">
+        <v>2</v>
+      </c>
+      <c r="I85" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="J85" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="7:10" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="H87" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="I87" s="79" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G88" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="H88" s="76">
+        <f>K33*1000/$D$25</f>
+        <v>2048.9318982387476</v>
+      </c>
+      <c r="I88" s="76">
+        <f>K33/J71</f>
+        <v>2390.4205479452053</v>
+      </c>
+    </row>
+    <row r="89" spans="7:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G89" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="H56" s="54">
+      <c r="H89" s="74">
         <f>K35*1000/$D$25</f>
         <v>8.2295107632093938</v>
       </c>
-      <c r="I56" s="66">
-        <f>K35/J79</f>
+      <c r="I89" s="74">
+        <f>K35/J78</f>
         <v>576.0657534246576</v>
       </c>
-      <c r="J56" s="69">
-        <f>H56/J79</f>
-        <v>164.59021526418786</v>
-      </c>
-    </row>
-    <row r="57" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="10" t="s">
+    </row>
+    <row r="90" spans="7:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G90" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="H57" s="54">
+      <c r="H90" s="74">
         <f>K37*1000/$D$25</f>
         <v>98.788884540117408</v>
       </c>
-      <c r="I57" s="66">
-        <f>K37/J69</f>
+      <c r="I90" s="74">
+        <f>K37/J68</f>
         <v>8644.0273972602736</v>
       </c>
-      <c r="J57" s="69">
-        <f>H57/J69</f>
-        <v>2469.7221135029354</v>
-      </c>
-    </row>
-    <row r="58" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H58" s="54">
+    </row>
+    <row r="91" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G91" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="H91" s="74">
         <f>K39*1000/$D$25</f>
         <v>3.6304109589041103</v>
       </c>
-      <c r="I58" s="66">
-        <f>K39/J71</f>
+      <c r="I91" s="74">
+        <f>K39/J70</f>
         <v>42354.794520547955</v>
       </c>
-      <c r="J58" s="69">
-        <f>H58/J71</f>
-        <v>12101.369863013702</v>
-      </c>
-    </row>
-    <row r="59" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="10" t="s">
+    </row>
+    <row r="92" spans="7:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G92" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="H59" s="54">
+      <c r="H92" s="74">
         <f>K41*1000/$D$25</f>
         <v>0</v>
       </c>
-      <c r="I59" s="66">
-        <f>K41/J85</f>
+      <c r="I92" s="74">
+        <f>K41/J84</f>
         <v>0</v>
       </c>
-      <c r="J59" s="69">
-        <f>H59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G60" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H60" s="54">
+    </row>
+    <row r="93" spans="7:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="G93" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="H93" s="74">
         <f>K43*1000/$D$25</f>
         <v>180.44853228962816</v>
       </c>
-      <c r="I60" s="66">
-        <f>K43/J75</f>
+      <c r="I93" s="74">
+        <f>K43/J74</f>
         <v>126313.97260273973</v>
       </c>
-      <c r="J60" s="69">
-        <f>H60/J75</f>
-        <v>36089.706457925633</v>
-      </c>
-    </row>
-    <row r="61" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G61" s="10" t="s">
+    </row>
+    <row r="94" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G94" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="H61" s="54">
+      <c r="H94" s="74">
         <f>K45*1000/$D$25</f>
         <v>9.6868884540117435</v>
       </c>
-      <c r="I61" s="66">
-        <f>K45/J70</f>
+      <c r="I94" s="74">
+        <f>K45/J69</f>
         <v>678.08219178082197</v>
       </c>
-      <c r="J61" s="69">
-        <f>H61/J70</f>
-        <v>193.73776908023487</v>
-      </c>
-    </row>
-    <row r="62" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G62" s="10" t="s">
+    </row>
+    <row r="95" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G95" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="H62" s="54">
+      <c r="H95" s="74">
         <f>K47*1000/$D$25</f>
         <v>0.29485714285714287</v>
       </c>
-      <c r="I62" s="66">
-        <f>K47/J86</f>
+      <c r="I95" s="74">
+        <f>K47/J85</f>
         <v>17.200000000000003</v>
       </c>
-      <c r="J62" s="69">
-        <f>H62/J86</f>
-        <v>4.9142857142857146</v>
-      </c>
-    </row>
-    <row r="63" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G63" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H63" s="55">
+    </row>
+    <row r="96" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="H96" s="77">
         <f>K49*1000/$D$25</f>
         <v>1.2342857142857142E-6</v>
       </c>
-      <c r="I63" s="67">
-        <f>K49/J82</f>
+      <c r="I96" s="77">
+        <f>K49/J81</f>
         <v>4.32</v>
-      </c>
-      <c r="J63" s="71">
-        <f>H63/J82</f>
-        <v>1.2342857142857142</v>
-      </c>
-    </row>
-    <row r="64" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G65" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="I65" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="J65" s="14"/>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G66" s="35"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32"/>
-    </row>
-    <row r="67" spans="7:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G67" s="35"/>
-      <c r="H67" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="I67" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="J67" s="34"/>
-    </row>
-    <row r="68" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G68" s="16"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G69" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H69" s="13">
-        <v>2</v>
-      </c>
-      <c r="I69" s="13">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J69" s="13">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G70" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H70" s="13">
-        <v>3</v>
-      </c>
-      <c r="I70" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="J70" s="13">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G71" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H71" s="13">
-        <v>1</v>
-      </c>
-      <c r="I71" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="J71" s="13">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="G72" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="H72" s="15">
-        <v>3</v>
-      </c>
-      <c r="I72" s="15">
-        <v>5</v>
-      </c>
-      <c r="J72" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G73" s="53"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-    </row>
-    <row r="74" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G74" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-    </row>
-    <row r="75" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G75" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H75" s="15">
-        <v>4</v>
-      </c>
-      <c r="I75" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="J75" s="15">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G76" s="53"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-    </row>
-    <row r="77" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G77" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-    </row>
-    <row r="78" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G78" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="H78" s="13">
-        <v>3</v>
-      </c>
-      <c r="I78" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J78" s="13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="G79" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="H79" s="15">
-        <v>2</v>
-      </c>
-      <c r="I79" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J79" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G80" s="53"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="81" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G81" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-    </row>
-    <row r="82" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G82" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H82" s="15">
-        <v>1</v>
-      </c>
-      <c r="I82" s="58"/>
-      <c r="J82" s="61">
-        <f>10^-6</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G83" s="53"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="62"/>
-    </row>
-    <row r="84" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G84" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H84" s="16"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="63"/>
-    </row>
-    <row r="85" spans="7:10" ht="51" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G85" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H85" s="13">
-        <v>3</v>
-      </c>
-      <c r="I85" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J85" s="13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H86" s="13">
-        <v>2</v>
-      </c>
-      <c r="I86" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="J86" s="13">
-        <v>0.06</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:M10"/>
     <mergeCell ref="H23:P23"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
@@ -4416,10 +4926,55 @@
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="P26:P27"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J49:J50"/>
     <mergeCell ref="J37:J38"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="J81:J83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Лаб1.xlsx
+++ b/Файлы/1 курс/2 семестр/Экология/Лабы/18.02.25 - 1-ая лаба/Лаб1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codespace\Файлы\1 курс\2 семестр\Экология\Лабы\18.02.25 - 1-ая лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D4748E-A727-40F0-A15B-80D40A7E273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_Hlk153478266" localSheetId="1">Лист2!$K$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="222">
   <si>
     <t>V(ов) л</t>
   </si>
@@ -1660,15 +1659,115 @@
       </rPr>
       <t>с уч к.д</t>
     </r>
+  </si>
+  <si>
+    <t>Мсо</t>
+  </si>
+  <si>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <r>
+      <t>Мсо</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Кув</t>
+  </si>
+  <si>
+    <t>m COx</t>
+  </si>
+  <si>
+    <t>m CO</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ОБЩ ЛМ погл СО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>погл СО с уч к.д.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">N а сум </t>
+  </si>
+  <si>
+    <t>авт/ч</t>
+  </si>
+  <si>
+    <t>Ка</t>
+  </si>
+  <si>
+    <t>Ку</t>
+  </si>
+  <si>
+    <t>Кс</t>
+  </si>
+  <si>
+    <t>Кв</t>
+  </si>
+  <si>
+    <t>Кп</t>
+  </si>
+  <si>
+    <t>Тип автомобиля</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2144,7 +2243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2243,88 +2342,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -2351,9 +2369,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2393,7 +2495,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE44EA3F-B28A-BD79-1AB5-04F7F8379C00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE44EA3F-B28A-BD79-1AB5-04F7F8379C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,8 +2534,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>75442</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>681579</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>130095</xdr:rowOff>
     </xdr:to>
@@ -2442,7 +2544,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8754555E-3D36-4C82-ACE2-B462D285F125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8754555E-3D36-4C82-ACE2-B462D285F125}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,6 +2562,82 @@
         <a:xfrm>
           <a:off x="9537370" y="24171235"/>
           <a:ext cx="6087325" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>216479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510886</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>117868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12997297"/>
+          <a:ext cx="4390159" cy="524844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>389660</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>54417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="15205364"/>
+          <a:ext cx="4875068" cy="3015827"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,11 +2911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:B46"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,21 +3395,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E4EE3D-134B-4883-BA19-A51C117059BF}">
-  <dimension ref="A1:Q96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="77" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -3500,17 +3679,17 @@
       <c r="C10" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="67"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
@@ -3522,7 +3701,7 @@
       <c r="C11" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="64"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="13" t="s">
         <v>110</v>
       </c>
@@ -3678,7 +3857,7 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>71</v>
       </c>
@@ -3704,7 +3883,7 @@
         <f>B4</f>
         <v>5</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="40" t="s">
         <v>79</v>
       </c>
       <c r="H20" s="13"/>
@@ -3741,17 +3920,17 @@
       <c r="G23" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="62"/>
     </row>
     <row r="24" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G24" s="23" t="s">
@@ -3851,31 +4030,31 @@
       <c r="G26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="63">
         <v>37.299999999999997</v>
       </c>
-      <c r="I26" s="61">
+      <c r="I26" s="63">
         <v>6.9</v>
       </c>
-      <c r="J26" s="61">
+      <c r="J26" s="63">
         <v>0.8</v>
       </c>
-      <c r="K26" s="61" t="s">
+      <c r="K26" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="L26" s="61">
+      <c r="L26" s="63">
         <v>0.19</v>
       </c>
-      <c r="M26" s="61">
+      <c r="M26" s="63">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N26" s="61">
+      <c r="N26" s="63">
         <v>0.85</v>
       </c>
-      <c r="O26" s="61" t="s">
+      <c r="O26" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="61">
+      <c r="P26" s="63">
         <v>0.23400000000000001</v>
       </c>
     </row>
@@ -3900,15 +4079,15 @@
       <c r="G27" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
     </row>
     <row r="28" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -3995,20 +4174,20 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56" t="s">
+      <c r="G31" s="65"/>
+      <c r="H31" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="57" t="s">
+      <c r="J31" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="K31" s="57"/>
+      <c r="K31" s="66"/>
     </row>
     <row r="32" spans="1:16" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
@@ -4020,10 +4199,10 @@
       <c r="C32" t="s">
         <v>199</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="1" t="s">
         <v>155</v>
       </c>
@@ -4042,7 +4221,7 @@
       <c r="C33" t="s">
         <v>203</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="67" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="30" t="s">
@@ -4056,15 +4235,15 @@
         <f>B19*H25*24*365</f>
         <v>173448.00000000003</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="67">
         <f>SUM(H33:I33)</f>
         <v>2617510.5</v>
       </c>
-      <c r="K33" s="55">
+      <c r="K33" s="67">
         <f>J33/365</f>
         <v>7171.2616438356163</v>
       </c>
-      <c r="N33" s="81"/>
+      <c r="N33" s="54"/>
     </row>
     <row r="34" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
@@ -4077,26 +4256,26 @@
       <c r="C34" t="s">
         <v>203</v>
       </c>
-      <c r="F34" s="55"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
     </row>
     <row r="35" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B35" s="80">
+      <c r="B35" s="53">
         <f>B34+B33</f>
         <v>0.53471189096953631</v>
       </c>
       <c r="C35" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="67" t="s">
         <v>119</v>
       </c>
       <c r="G35" s="30" t="s">
@@ -4110,25 +4289,25 @@
         <f>B19*L25*24*365</f>
         <v>613.20000000000005</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="67">
         <f t="shared" ref="J35" si="1">SUM(H35:I35)</f>
         <v>10513.2</v>
       </c>
-      <c r="K35" s="55">
+      <c r="K35" s="67">
         <f>J35/365</f>
         <v>28.80328767123288</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="F36" s="55"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
     </row>
     <row r="37" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
@@ -4141,7 +4320,7 @@
       <c r="C37" t="s">
         <v>203</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="67" t="s">
         <v>120</v>
       </c>
       <c r="G37" s="30" t="s">
@@ -4155,27 +4334,33 @@
         <f>B19*J25*24*365</f>
         <v>2452.8000000000002</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J37" s="67">
         <f t="shared" ref="J37" si="2">SUM(H37:I37)</f>
         <v>126202.8</v>
       </c>
-      <c r="K37" s="55">
+      <c r="K37" s="67">
         <f>J37/365</f>
         <v>345.76109589041096</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F38" s="55"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F39" s="55" t="s">
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+    </row>
+    <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="F39" s="67" t="s">
         <v>113</v>
       </c>
       <c r="G39" s="30" t="s">
@@ -4189,27 +4374,40 @@
         <f>B19*M25*24*365</f>
         <v>306.60000000000002</v>
       </c>
-      <c r="J39" s="55">
+      <c r="J39" s="67">
         <f t="shared" ref="J39" si="3">SUM(H39:I39)</f>
         <v>4637.8500000000004</v>
       </c>
-      <c r="K39" s="55">
+      <c r="K39" s="67">
         <f>J39/365</f>
         <v>12.706438356164385</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F40" s="55"/>
+    <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="F40" s="67"/>
       <c r="G40" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F41" s="55" t="s">
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+    </row>
+    <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41">
+        <f>B39+B40</f>
+        <v>28</v>
+      </c>
+      <c r="F41" s="67" t="s">
         <v>133</v>
       </c>
       <c r="G41" s="30" t="s">
@@ -4223,27 +4421,34 @@
         <f>B19*N25</f>
         <v>0</v>
       </c>
-      <c r="J41" s="55">
+      <c r="J41" s="67">
         <f t="shared" ref="J41" si="4">SUM(H41:I41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="55">
+      <c r="K41" s="67">
         <f>J41/365</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F42" s="55"/>
+    <row r="42" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42">
+        <f>B39+2*B40</f>
+        <v>44</v>
+      </c>
+      <c r="F42" s="67"/>
       <c r="G42" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="67" t="s">
         <v>121</v>
       </c>
       <c r="G43" s="30" t="s">
@@ -4257,27 +4462,44 @@
         <f>B19*I25*24*365</f>
         <v>20148</v>
       </c>
-      <c r="J43" s="55">
+      <c r="J43" s="67">
         <f t="shared" ref="J43" si="5">SUM(H43:I43)</f>
         <v>230523</v>
       </c>
-      <c r="K43" s="55">
+      <c r="K43" s="67">
         <f>J43/365</f>
         <v>631.56986301369864</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F44" s="55"/>
+    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44">
+        <f>B42/B41</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="F44" s="67"/>
       <c r="G44" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F45" s="55" t="s">
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+    </row>
+    <row r="45" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45">
+        <f>J33/1000</f>
+        <v>2617.5104999999999</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="67" t="s">
         <v>130</v>
       </c>
       <c r="G45" s="30" t="s">
@@ -4288,27 +4510,47 @@
         <v>12375</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="55">
+      <c r="J45" s="67">
         <f t="shared" ref="J45" si="6">SUM(H45:I45)</f>
         <v>12375</v>
       </c>
-      <c r="K45" s="55">
+      <c r="K45" s="67">
         <f>J45/365</f>
         <v>33.904109589041099</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F46" s="55"/>
+    <row r="46" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46">
+        <f>(B44*B45)+(Лист1!B27*1000)</f>
+        <v>23874.631942834287</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="67"/>
       <c r="G46" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F47" s="55" t="s">
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+    </row>
+    <row r="47" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47">
+        <f>B46/1000</f>
+        <v>23.874631942834288</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="67" t="s">
         <v>157</v>
       </c>
       <c r="G47" s="30" t="s">
@@ -4319,27 +4561,27 @@
         <f>B19*P25*24*365</f>
         <v>376.68</v>
       </c>
-      <c r="J47" s="55">
+      <c r="J47" s="67">
         <f t="shared" ref="J47" si="7">SUM(H47:I47)</f>
         <v>376.68</v>
       </c>
-      <c r="K47" s="55">
+      <c r="K47" s="67">
         <f>J47/365</f>
         <v>1.032</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F48" s="55"/>
+      <c r="F48" s="67"/>
       <c r="G48" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-    </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F49" s="55" t="s">
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F49" s="67" t="s">
         <v>158</v>
       </c>
       <c r="G49" s="30" t="s">
@@ -4350,27 +4592,48 @@
         <f>B19*O25*24*365</f>
         <v>1.5767999999999999E-3</v>
       </c>
-      <c r="J49" s="55">
+      <c r="J49" s="67">
         <f t="shared" ref="J49" si="8">SUM(H49:I49)</f>
         <v>1.5767999999999999E-3</v>
       </c>
-      <c r="K49" s="55">
+      <c r="K49" s="67">
         <f>J49/365</f>
         <v>4.3200000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="55"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F50" s="67"/>
       <c r="G50" s="30" t="s">
         <v>127</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-    </row>
-    <row r="51" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="6:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+    </row>
+    <row r="51" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51">
+        <f>(B47/Лист1!Q1)/10000</f>
+        <v>1.4469473904748054</v>
+      </c>
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52">
+        <f>B51*1.25</f>
+        <v>1.8086842380935066</v>
+      </c>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
       <c r="G52" s="10" t="s">
         <v>122</v>
       </c>
@@ -4382,7 +4645,7 @@
       </c>
       <c r="J52" s="39"/>
     </row>
-    <row r="53" spans="6:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G53" s="11" t="s">
         <v>169</v>
       </c>
@@ -4392,11 +4655,21 @@
       <c r="I53" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="J53" s="71" t="s">
+      <c r="J53" s="44" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54">
+        <f>SUM(I16:I21)</f>
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>215</v>
+      </c>
       <c r="G54" s="18" t="s">
         <v>110</v>
       </c>
@@ -4408,12 +4681,12 @@
         <f>K33/J71</f>
         <v>2390.4205479452053</v>
       </c>
-      <c r="J54" s="70">
+      <c r="J54" s="43">
         <f>H54/J71</f>
         <v>682.97729941291584</v>
       </c>
     </row>
-    <row r="55" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G55" s="10" t="s">
         <v>111</v>
       </c>
@@ -4425,12 +4698,12 @@
         <f>K35/J78</f>
         <v>576.0657534246576</v>
       </c>
-      <c r="J55" s="68">
+      <c r="J55" s="41">
         <f>H55/J78</f>
         <v>164.59021526418786</v>
       </c>
     </row>
-    <row r="56" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G56" s="10" t="s">
         <v>112</v>
       </c>
@@ -4442,12 +4715,12 @@
         <f>K37/J68</f>
         <v>8644.0273972602736</v>
       </c>
-      <c r="J56" s="68">
+      <c r="J56" s="41">
         <f>H56/J68</f>
         <v>2469.7221135029354</v>
       </c>
     </row>
-    <row r="57" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G57" s="10" t="s">
         <v>128</v>
       </c>
@@ -4459,12 +4732,12 @@
         <f>K39/J70</f>
         <v>42354.794520547955</v>
       </c>
-      <c r="J57" s="68">
+      <c r="J57" s="41">
         <f>H57/J70</f>
         <v>12101.369863013702</v>
       </c>
     </row>
-    <row r="58" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G58" s="10" t="s">
         <v>129</v>
       </c>
@@ -4476,12 +4749,12 @@
         <f>K41/J84</f>
         <v>0</v>
       </c>
-      <c r="J58" s="68">
+      <c r="J58" s="41">
         <f>H58</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G59" s="10" t="s">
         <v>114</v>
       </c>
@@ -4493,12 +4766,12 @@
         <f>K43/J74</f>
         <v>126313.97260273973</v>
       </c>
-      <c r="J59" s="68">
+      <c r="J59" s="41">
         <f>H59/J74</f>
         <v>36089.706457925633</v>
       </c>
     </row>
-    <row r="60" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G60" s="10" t="s">
         <v>130</v>
       </c>
@@ -4510,12 +4783,12 @@
         <f>K45/J69</f>
         <v>678.08219178082197</v>
       </c>
-      <c r="J60" s="68">
+      <c r="J60" s="41">
         <f>H60/J69</f>
         <v>193.73776908023487</v>
       </c>
     </row>
-    <row r="61" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G61" s="10" t="s">
         <v>131</v>
       </c>
@@ -4527,12 +4800,12 @@
         <f>K47/J85</f>
         <v>17.200000000000003</v>
       </c>
-      <c r="J61" s="68">
+      <c r="J61" s="41">
         <f>H61/J85</f>
         <v>4.9142857142857146</v>
       </c>
     </row>
-    <row r="62" spans="6:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G62" s="28" t="s">
         <v>132</v>
       </c>
@@ -4544,42 +4817,42 @@
         <f>K49/J81</f>
         <v>4.32</v>
       </c>
-      <c r="J62" s="69">
+      <c r="J62" s="42">
         <f>H62/J81</f>
         <v>1.2342857142857142</v>
       </c>
     </row>
-    <row r="63" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G64" s="40" t="s">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="68" t="s">
         <v>154</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="I64" s="49" t="s">
+      <c r="I64" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="J64" s="50"/>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G65" s="41"/>
+      <c r="J64" s="72"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="69"/>
       <c r="H65" s="20"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="52"/>
-    </row>
-    <row r="66" spans="7:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G66" s="41"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="74"/>
+    </row>
+    <row r="66" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="69"/>
       <c r="H66" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="53" t="s">
+      <c r="I66" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="J66" s="54"/>
-    </row>
-    <row r="67" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G67" s="42"/>
+      <c r="J66" s="76"/>
+    </row>
+    <row r="67" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="70"/>
       <c r="H67" s="34"/>
       <c r="I67" s="13" t="s">
         <v>178</v>
@@ -4588,7 +4861,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="7:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G68" s="11" t="s">
         <v>180</v>
       </c>
@@ -4602,7 +4875,13 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="69" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69">
+        <v>0.4</v>
+      </c>
       <c r="G69" s="11" t="s">
         <v>130</v>
       </c>
@@ -4616,7 +4895,13 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="7:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
       <c r="G70" s="11" t="s">
         <v>181</v>
       </c>
@@ -4630,63 +4915,81 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="71" spans="7:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71">
+        <v>1.5</v>
+      </c>
       <c r="G71" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="H71" s="40">
+      <c r="H71" s="68">
         <v>3</v>
       </c>
-      <c r="I71" s="40">
+      <c r="I71" s="68">
         <v>5</v>
       </c>
-      <c r="J71" s="40">
+      <c r="J71" s="68">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
       <c r="G72" s="31"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-    </row>
-    <row r="73" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+    </row>
+    <row r="73" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
       <c r="G73" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-    </row>
-    <row r="74" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G74" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H74" s="68">
         <v>4</v>
       </c>
-      <c r="I74" s="40">
+      <c r="I74" s="68">
         <v>0.03</v>
       </c>
-      <c r="J74" s="40">
+      <c r="J74" s="68">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G75" s="31"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-    </row>
-    <row r="76" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+    </row>
+    <row r="76" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G76" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-    </row>
-    <row r="77" spans="7:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H76" s="70"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G77" s="11" t="s">
         <v>186</v>
       </c>
@@ -4700,60 +5003,60 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="78" spans="7:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="G78" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="H78" s="40">
+      <c r="H78" s="68">
         <v>2</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="68">
         <v>0.5</v>
       </c>
-      <c r="J78" s="40">
+      <c r="J78" s="68">
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G79" s="31"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
+    </row>
+    <row r="80" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G80" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
     </row>
     <row r="81" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G81" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="H81" s="40">
+      <c r="H81" s="68">
         <v>1</v>
       </c>
-      <c r="I81" s="43"/>
-      <c r="J81" s="46">
+      <c r="I81" s="77"/>
+      <c r="J81" s="80">
         <f>10^-6</f>
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="82" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G82" s="31"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="47"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="81"/>
     </row>
     <row r="83" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G83" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H83" s="42"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="48"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="82"/>
     </row>
     <row r="84" spans="7:10" ht="51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G84" s="11" t="s">
@@ -4785,147 +5088,225 @@
     </row>
     <row r="86" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="7:10" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G87" s="78" t="s">
+      <c r="G87" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="H87" s="79" t="s">
+      <c r="H87" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="I87" s="79" t="s">
+      <c r="I87" s="52" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="88" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G88" s="72" t="s">
+      <c r="G88" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="H88" s="76">
+      <c r="H88" s="49">
         <f>K33*1000/$D$25</f>
         <v>2048.9318982387476</v>
       </c>
-      <c r="I88" s="76">
+      <c r="I88" s="49">
         <f>K33/J71</f>
         <v>2390.4205479452053</v>
       </c>
     </row>
     <row r="89" spans="7:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G89" s="73" t="s">
+      <c r="G89" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="H89" s="74">
+      <c r="H89" s="47">
         <f>K35*1000/$D$25</f>
         <v>8.2295107632093938</v>
       </c>
-      <c r="I89" s="74">
+      <c r="I89" s="47">
         <f>K35/J78</f>
         <v>576.0657534246576</v>
       </c>
     </row>
     <row r="90" spans="7:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G90" s="73" t="s">
+      <c r="G90" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="H90" s="74">
+      <c r="H90" s="47">
         <f>K37*1000/$D$25</f>
         <v>98.788884540117408</v>
       </c>
-      <c r="I90" s="74">
+      <c r="I90" s="47">
         <f>K37/J68</f>
         <v>8644.0273972602736</v>
       </c>
     </row>
     <row r="91" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G91" s="73" t="s">
+      <c r="G91" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="H91" s="74">
+      <c r="H91" s="47">
         <f>K39*1000/$D$25</f>
         <v>3.6304109589041103</v>
       </c>
-      <c r="I91" s="74">
+      <c r="I91" s="47">
         <f>K39/J70</f>
         <v>42354.794520547955</v>
       </c>
     </row>
     <row r="92" spans="7:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="G92" s="73" t="s">
+      <c r="G92" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="H92" s="74">
+      <c r="H92" s="47">
         <f>K41*1000/$D$25</f>
         <v>0</v>
       </c>
-      <c r="I92" s="74">
+      <c r="I92" s="47">
         <f>K41/J84</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="7:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="G93" s="74" t="s">
+      <c r="G93" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="H93" s="74">
+      <c r="H93" s="47">
         <f>K43*1000/$D$25</f>
         <v>180.44853228962816</v>
       </c>
-      <c r="I93" s="74">
+      <c r="I93" s="47">
         <f>K43/J74</f>
         <v>126313.97260273973</v>
       </c>
     </row>
     <row r="94" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G94" s="73" t="s">
+      <c r="G94" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="H94" s="74">
+      <c r="H94" s="47">
         <f>K45*1000/$D$25</f>
         <v>9.6868884540117435</v>
       </c>
-      <c r="I94" s="74">
+      <c r="I94" s="47">
         <f>K45/J69</f>
         <v>678.08219178082197</v>
       </c>
     </row>
     <row r="95" spans="7:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G95" s="73" t="s">
+      <c r="G95" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="H95" s="74">
+      <c r="H95" s="47">
         <f>K47*1000/$D$25</f>
         <v>0.29485714285714287</v>
       </c>
-      <c r="I95" s="74">
+      <c r="I95" s="47">
         <f>K47/J85</f>
         <v>17.200000000000003</v>
       </c>
     </row>
     <row r="96" spans="7:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G96" s="75" t="s">
+      <c r="G96" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="H96" s="77">
+      <c r="H96" s="50">
         <f>K49*1000/$D$25</f>
         <v>1.2342857142857142E-6</v>
       </c>
-      <c r="I96" s="77">
+      <c r="I96" s="50">
         <f>K49/J81</f>
         <v>4.32</v>
       </c>
     </row>
+    <row r="98" spans="7:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G99" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H99" s="1">
+        <f>B101</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <f>B105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G100" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G101" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G102" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H23:P23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K47:K48"/>
     <mergeCell ref="F31:G32"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
@@ -4942,37 +5323,18 @@
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
